--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DA3C5-CB36-418A-8012-1751B31BA15A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35069978-F0C8-4859-888E-00962285791E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Work Description</t>
+  </si>
+  <si>
+    <t>17.01.2019</t>
+  </si>
+  <si>
+    <t>Started project.</t>
   </si>
 </sst>
 </file>
@@ -346,14 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C2"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -368,6 +375,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35069978-F0C8-4859-888E-00962285791E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5279E19A-3B5A-4C5F-8BE3-066832156DBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -35,14 +41,31 @@
   </si>
   <si>
     <t>Started project.</t>
+  </si>
+  <si>
+    <t>20/21.01.2019</t>
+  </si>
+  <si>
+    <t>Very very simple enemy ai, throwable daggers, quick mobile build.</t>
+  </si>
+  <si>
+    <t>Total hours:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -352,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,14 +388,24 @@
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1">
+        <f>SUM(B3:B999)</f>
+        <v>14</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -386,7 +420,19 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5279E19A-3B5A-4C5F-8BE3-066832156DBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EC91F9-D881-4454-BC23-F0A00B58FC57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Total hours:</t>
+  </si>
+  <si>
+    <t>21.01.2019</t>
+  </si>
+  <si>
+    <t>Improved enemy AI.</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +400,7 @@
       </c>
       <c r="B1" s="1">
         <f>SUM(B3:B999)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -429,6 +435,17 @@
       </c>
       <c r="C4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EC91F9-D881-4454-BC23-F0A00B58FC57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6467E-FCF9-4FED-9618-5278FAF74599}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Improved enemy AI.</t>
+  </si>
+  <si>
+    <t>23.01.2019</t>
+  </si>
+  <si>
+    <t>Started project from scratch, implemented systems for weapons and animations, rewrote input manager and player movement.</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +406,7 @@
       </c>
       <c r="B1" s="1">
         <f>SUM(B3:B999)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -446,6 +452,17 @@
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6467E-FCF9-4FED-9618-5278FAF74599}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A930FE9-ABBC-4B77-BCF2-75B0C7401687}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Started project from scratch, implemented systems for weapons and animations, rewrote input manager and player movement.</t>
+  </si>
+  <si>
+    <t>26.01.2019</t>
+  </si>
+  <si>
+    <t>Enemy pathfinding with A* algorithm using a grid as nodes.</t>
   </si>
 </sst>
 </file>
@@ -388,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +412,7 @@
       </c>
       <c r="B1" s="1">
         <f>SUM(B3:B999)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -463,6 +469,17 @@
       </c>
       <c r="C6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A930FE9-ABBC-4B77-BCF2-75B0C7401687}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1D45D-1DA3-47B1-A0E0-06794C3476A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -68,13 +68,19 @@
   </si>
   <si>
     <t>Enemy pathfinding with A* algorithm using a grid as nodes.</t>
+  </si>
+  <si>
+    <t>27.01.2019</t>
+  </si>
+  <si>
+    <t>Started enemy AI.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +90,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -394,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +427,7 @@
       </c>
       <c r="B1" s="1">
         <f>SUM(B3:B999)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -434,7 +449,7 @@
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -445,7 +460,7 @@
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -456,7 +471,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -480,6 +495,17 @@
       </c>
       <c r="C7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1D45D-1DA3-47B1-A0E0-06794C3476A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -74,12 +73,18 @@
   </si>
   <si>
     <t>Started enemy AI.</t>
+  </si>
+  <si>
+    <t>28.01.2019</t>
+  </si>
+  <si>
+    <t>Enemy AI improvements.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +136,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,11 +413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +432,7 @@
       </c>
       <c r="B1" s="1">
         <f>SUM(B3:B999)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -506,6 +511,17 @@
       </c>
       <c r="C8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6586600A-CDF7-454A-982D-83A81330A67C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -79,12 +80,15 @@
   </si>
   <si>
     <t>Enemy AI improvements.</t>
+  </si>
+  <si>
+    <t>Enemy fights back now yay. It's almost a game.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,7 +140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +436,7 @@
       </c>
       <c r="B1" s="1">
         <f>SUM(B3:B999)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -522,6 +526,17 @@
       </c>
       <c r="C9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6586600A-CDF7-454A-982D-83A81330A67C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E238959-01A1-4F92-ACB7-C48C7BF47EB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Enemy fights back now yay. It's almost a game.</t>
+  </si>
+  <si>
+    <t>29.01.2019</t>
+  </si>
+  <si>
+    <t>Gameplay improvements</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +442,7 @@
       </c>
       <c r="B1" s="1">
         <f>SUM(B3:B999)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -537,6 +543,17 @@
       </c>
       <c r="C10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Worked Hours.xlsx
+++ b/Worked Hours.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E238959-01A1-4F92-ACB7-C48C7BF47EB3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79AFE15-CA58-4678-9C91-8B303C58AE17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Gameplay improvements</t>
+  </si>
+  <si>
+    <t>30.01.2019</t>
+  </si>
+  <si>
+    <t>More gameplay improvements</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +448,7 @@
       </c>
       <c r="B1" s="1">
         <f>SUM(B3:B999)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -554,6 +560,17 @@
       </c>
       <c r="C11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
